--- a/artfynd/A 53552-2021.xlsx
+++ b/artfynd/A 53552-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>87178118</v>
+        <v>106593744</v>
       </c>
       <c r="B2" t="n">
-        <v>44330</v>
+        <v>96370</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,54 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>102018</v>
+        <v>219875</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bredbrämad bastardsvärmare</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Zygaena lonicerae</t>
+          <t>Platanthera chlorantha</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scheven, 1777)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>(Custer) Rchb.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Hangvar, Gtl</t>
+          <t>Kyrkebys 1,3 km SO, Gtl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>720224.4371702594</v>
+        <v>720065.4055682207</v>
       </c>
       <c r="R2" t="n">
-        <v>6415731.971262196</v>
+        <v>6415853.446892135</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -763,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>1996-08-10</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -773,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>1996-08-10</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -787,29 +774,43 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Tallskog, örtrik.</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>Stockholm-Naturhistoriska riksmuseet</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Marcus Vestlund</t>
+          <t>Jörgen Petersson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Marcus Vestlund</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Thomas Karlsson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Projekt Gotlands Flora</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106593744</v>
+        <v>106593743</v>
       </c>
       <c r="B3" t="n">
-        <v>96370</v>
+        <v>103178</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,21 +823,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219875</v>
+        <v>221141</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Platanthera chlorantha</t>
+          <t>Primula veris</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Custer) Rchb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -933,10 +934,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>106593743</v>
+        <v>87178118</v>
       </c>
       <c r="B4" t="n">
-        <v>103178</v>
+        <v>44330</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -945,41 +946,54 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221141</v>
+        <v>102018</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Bredbrämad bastardsvärmare</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Primula veris</t>
+          <t>Zygaena lonicerae</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(Scheven, 1777)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Kyrkebys 1,3 km SO, Gtl</t>
+          <t>Hangvar, Gtl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>720065.4055682207</v>
+        <v>720224.4371702594</v>
       </c>
       <c r="R4" t="n">
-        <v>6415853.446892135</v>
+        <v>6415731.971262196</v>
       </c>
       <c r="S4" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1003,7 +1017,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1996-08-10</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1013,7 +1027,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1996-08-10</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1027,36 +1041,22 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Tallskog, örtrik.</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>Stockholm-Naturhistoriska riksmuseet</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Jörgen Petersson</t>
+          <t>Marcus Vestlund</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Thomas Karlsson</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>Projekt Gotlands Flora</t>
-        </is>
-      </c>
+          <t>Marcus Vestlund</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 53552-2021.xlsx
+++ b/artfynd/A 53552-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>106593744</v>
+        <v>87178118</v>
       </c>
       <c r="B2" t="n">
-        <v>96370</v>
+        <v>44330</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,54 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219875</v>
+        <v>102018</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Bredbrämad bastardsvärmare</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Platanthera chlorantha</t>
+          <t>Zygaena lonicerae</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Custer) Rchb.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(Scheven, 1777)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kyrkebys 1,3 km SO, Gtl</t>
+          <t>Hangvar, Gtl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>720065.4055682207</v>
+        <v>720224.4371702594</v>
       </c>
       <c r="R2" t="n">
-        <v>6415853.446892135</v>
+        <v>6415731.971262196</v>
       </c>
       <c r="S2" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +763,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1996-08-10</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +773,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1996-08-10</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -774,43 +787,29 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Tallskog, örtrik.</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>Stockholm-Naturhistoriska riksmuseet</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Jörgen Petersson</t>
+          <t>Marcus Vestlund</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Thomas Karlsson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Projekt Gotlands Flora</t>
-        </is>
-      </c>
+          <t>Marcus Vestlund</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106593743</v>
+        <v>106593744</v>
       </c>
       <c r="B3" t="n">
-        <v>103178</v>
+        <v>96370</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -823,21 +822,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221141</v>
+        <v>219875</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Primula veris</t>
+          <t>Platanthera chlorantha</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Custer) Rchb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -934,10 +933,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87178118</v>
+        <v>106593743</v>
       </c>
       <c r="B4" t="n">
-        <v>44330</v>
+        <v>103178</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,54 +945,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102018</v>
+        <v>221141</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bredbrämad bastardsvärmare</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Zygaena lonicerae</t>
+          <t>Primula veris</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scheven, 1777)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Hangvar, Gtl</t>
+          <t>Kyrkebys 1,3 km SO, Gtl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>720224.4371702594</v>
+        <v>720065.4055682207</v>
       </c>
       <c r="R4" t="n">
-        <v>6415731.971262196</v>
+        <v>6415853.446892135</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1017,7 +1003,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>1996-08-10</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1027,7 +1013,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>1996-08-10</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1041,22 +1027,36 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Tallskog, örtrik.</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>Stockholm-Naturhistoriska riksmuseet</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Marcus Vestlund</t>
+          <t>Jörgen Petersson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Marcus Vestlund</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Thomas Karlsson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Projekt Gotlands Flora</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
